--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JonasSchneider/Documents/Sonstiges/Git/Git_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DB754B7-BD7C-6049-B0B7-8AD44CDED370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0EA1F3-6CD4-0440-94B2-A62B440D9667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{10F9175B-18EC-2E4F-8DD3-9D602348C7F9}"/>
   </bookViews>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7D7766-7088-CC4F-8D11-99DF60F3E3D5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -395,6 +395,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
